--- a/modeling/operant_sample1_modeling.xlsx
+++ b/modeling/operant_sample1_modeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larawieland/Documents/ECN/Promotion/SALAD/modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209713CE-0BD8-B744-AA5E-8CBC7FC3E1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36577013-84D6-B34D-A425-2FFD2C64B775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{559C9FC9-D0E4-8A42-8AF2-681E0B78F197}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,8 +521,7 @@
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="14" max="15" width="27.33203125" customWidth="1"/>
     <col min="16" max="16" width="20.33203125" customWidth="1"/>
     <col min="17" max="17" width="21.5" customWidth="1"/>
     <col min="18" max="18" width="21.1640625" customWidth="1"/>
